--- a/database.xlsx
+++ b/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB Developer\MY PROJECT\KMA\Project Inventory\Rancangan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\new-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F4868C-6AF7-4B74-BD54-D3D53BB2A294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BBF445-49AE-4E11-B4E6-B2CE327AF385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58EAB302-6F53-46DE-9F24-B5F63DB38A9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="167">
   <si>
     <t>Table Customer</t>
   </si>
@@ -658,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -692,10 +692,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1014,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F7A83-68FB-4936-89E0-A2513F628D09}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1757,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D86" t="s">
         <v>73</v>
       </c>
@@ -1763,29 +1768,31 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D87" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>19</v>
+      <c r="A88" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D88" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>20</v>
+      <c r="A89" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D89" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D90" t="s">
@@ -1797,7 +1804,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
         <v>34</v>
@@ -1807,24 +1814,24 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>21</v>
+      <c r="A92" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G92" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>34</v>
+      <c r="A93" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G93" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>35</v>
+      <c r="A94" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>125</v>
@@ -1834,8 +1841,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>36</v>
+      <c r="A95" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="D95" t="s">
         <v>126</v>
@@ -1845,7 +1852,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D96" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1863,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D97" t="s">
         <v>70</v>
       </c>
@@ -1863,80 +1874,75 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>40</v>
+      <c r="A98" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="G100" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="G101" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G102" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>22</v>
+      <c r="A103" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G103" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>23</v>
+      <c r="A104" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G104" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>10</v>
+      <c r="A105" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G106" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>151</v>
+      <c r="A107" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>129</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
         <v>85</v>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>89</v>
@@ -1972,73 +1978,69 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>12</v>
+      <c r="A115" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G115" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A116" s="8"/>
       <c r="G116" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>143</v>
+      <c r="A117" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="A120" s="8"/>
       <c r="G120" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>34</v>
+      <c r="A121" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="G121" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>35</v>
+      <c r="A122" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="G122" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>36</v>
+      <c r="A123" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G123" t="s">
         <v>108</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\new-inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BBF445-49AE-4E11-B4E6-B2CE327AF385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828874B-D57F-4E4B-95C6-0946FFCBCA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58EAB302-6F53-46DE-9F24-B5F63DB38A9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58EAB302-6F53-46DE-9F24-B5F63DB38A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="167">
   <si>
     <t>Table Customer</t>
   </si>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F7A83-68FB-4936-89E0-A2513F628D09}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,14 +1936,10 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A108" s="8"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A109" s="8"/>
       <c r="G109" s="1" t="s">
         <v>129</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828874B-D57F-4E4B-95C6-0946FFCBCA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A43718-C301-4DF1-B448-1CA0E32F07AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58EAB302-6F53-46DE-9F24-B5F63DB38A9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="171">
   <si>
     <t>Table Customer</t>
   </si>
@@ -526,6 +526,18 @@
   </si>
   <si>
     <t>ongkos_kirim</t>
+  </si>
+  <si>
+    <t>id_ganti_merk_in</t>
+  </si>
+  <si>
+    <t>Table Peubahan Merk IN</t>
+  </si>
+  <si>
+    <t>Table Peubahan Merk Out</t>
+  </si>
+  <si>
+    <t>id_ganti_merk_out</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F7A83-68FB-4936-89E0-A2513F628D09}">
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="G230" sqref="G230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,6 +2460,66 @@
         <v>70</v>
       </c>
     </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
